--- a/lineups/FS - TalynA.Tx.xlsx
+++ b/lineups/FS - TalynA.Tx.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\lineups\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39905FC-A4D9-4C7C-B922-DF12016EFDB6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Typical" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0"/>
+  <calcPr calcId="999999"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Temp</t>
   </si>
@@ -119,14 +124,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -137,28 +137,37 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -448,19 +457,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -555,7 +561,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-40</v>
       </c>
@@ -650,7 +656,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-40</v>
       </c>
@@ -745,7 +751,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-30</v>
       </c>
@@ -840,7 +846,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-30</v>
       </c>
@@ -935,7 +941,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>100</v>
       </c>
@@ -1030,7 +1036,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>100</v>
       </c>
@@ -1125,7 +1131,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>105</v>
       </c>
@@ -1220,7 +1226,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>105</v>
       </c>
@@ -1316,17 +1322,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
--- a/lineups/FS - TalynA.Tx.xlsx
+++ b/lineups/FS - TalynA.Tx.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\lineups\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39905FC-A4D9-4C7C-B922-DF12016EFDB6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Typical" sheetId="1" r:id="rId1"/>
+    <sheet name="Typical" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="999999"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>Temp</t>
   </si>
@@ -116,17 +111,19 @@
   </si>
   <si>
     <t>Note 1!</t>
-  </si>
-  <si>
-    <t>Note 2!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -137,37 +134,28 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -457,16 +445,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +552,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="A2">
         <v>-40</v>
       </c>
@@ -572,91 +563,91 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31">
       <c r="A3">
         <v>-40</v>
       </c>
@@ -667,91 +658,91 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31">
       <c r="A4">
         <v>-30</v>
       </c>
@@ -762,91 +753,91 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31">
       <c r="A5">
         <v>-30</v>
       </c>
@@ -857,472 +848,102 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>100</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
-      <c r="Y6">
-        <v>1</v>
-      </c>
-      <c r="Z6">
-        <v>1</v>
-      </c>
-      <c r="AA6">
-        <v>1</v>
-      </c>
-      <c r="AB6">
-        <v>1</v>
-      </c>
-      <c r="AC6">
-        <v>1</v>
-      </c>
-      <c r="AD6">
-        <v>1</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>100</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-      <c r="V7">
-        <v>1</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="X7">
-        <v>1</v>
-      </c>
-      <c r="Y7">
-        <v>1</v>
-      </c>
-      <c r="Z7">
-        <v>1</v>
-      </c>
-      <c r="AA7">
-        <v>1</v>
-      </c>
-      <c r="AB7">
-        <v>1</v>
-      </c>
-      <c r="AC7">
-        <v>1</v>
-      </c>
-      <c r="AD7">
-        <v>1</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>105</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <v>1</v>
-      </c>
-      <c r="V8">
-        <v>1</v>
-      </c>
-      <c r="W8">
-        <v>1</v>
-      </c>
-      <c r="X8">
-        <v>1</v>
-      </c>
-      <c r="Y8">
-        <v>1</v>
-      </c>
-      <c r="Z8">
-        <v>1</v>
-      </c>
-      <c r="AA8">
-        <v>1</v>
-      </c>
-      <c r="AB8">
-        <v>1</v>
-      </c>
-      <c r="AC8">
-        <v>1</v>
-      </c>
-      <c r="AD8">
-        <v>1</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>105</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <v>1</v>
-      </c>
-      <c r="V9">
-        <v>1</v>
-      </c>
-      <c r="W9">
-        <v>1</v>
-      </c>
-      <c r="X9">
-        <v>1</v>
-      </c>
-      <c r="Y9">
-        <v>1</v>
-      </c>
-      <c r="Z9">
-        <v>1</v>
-      </c>
-      <c r="AA9">
-        <v>1</v>
-      </c>
-      <c r="AB9">
-        <v>1</v>
-      </c>
-      <c r="AC9">
-        <v>1</v>
-      </c>
-      <c r="AD9">
-        <v>1</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>